--- a/test16-strip/filesize.xlsx
+++ b/test16-strip/filesize.xlsx
@@ -1856,7 +1856,7 @@
   <dimension ref="A1:E140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B106" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B116" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A146" sqref="A146"/>
       <selection pane="bottomRight" activeCell="B3" sqref="B3:C122"/>
@@ -1984,13 +1984,13 @@
         <v>148</v>
       </c>
       <c r="C9" s="6">
-        <v>3296173</v>
+        <v>3295971</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="6">
-        <v>3296185</v>
+        <v>3295963</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -1998,13 +1998,13 @@
         <v>149</v>
       </c>
       <c r="C10" s="6">
-        <v>880130</v>
+        <v>879397</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="6">
-        <v>880130</v>
+        <v>879397</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -2012,13 +2012,13 @@
         <v>150</v>
       </c>
       <c r="C11" s="6">
-        <v>501579</v>
+        <v>501531</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="6">
-        <v>501581</v>
+        <v>501529</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -2068,13 +2068,13 @@
         <v>154</v>
       </c>
       <c r="C15" s="6">
-        <v>180770</v>
+        <v>180784</v>
       </c>
       <c r="D15" t="s">
         <v>34</v>
       </c>
       <c r="E15" s="6">
-        <v>180770</v>
+        <v>180784</v>
       </c>
     </row>
     <row r="16" spans="2:5">
@@ -2082,13 +2082,13 @@
         <v>155</v>
       </c>
       <c r="C16" s="6">
-        <v>175995</v>
+        <v>176001</v>
       </c>
       <c r="D16" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="6">
-        <v>175995</v>
+        <v>176001</v>
       </c>
     </row>
     <row r="17" spans="2:5">
@@ -2110,13 +2110,13 @@
         <v>157</v>
       </c>
       <c r="C18" s="6">
-        <v>3751501</v>
+        <v>3756322</v>
       </c>
       <c r="D18" t="s">
         <v>37</v>
       </c>
       <c r="E18" s="6">
-        <v>3751501</v>
+        <v>3756322</v>
       </c>
     </row>
     <row r="19" spans="2:5">
@@ -2124,13 +2124,13 @@
         <v>158</v>
       </c>
       <c r="C19" s="6">
-        <v>433156</v>
+        <v>433281</v>
       </c>
       <c r="D19" t="s">
         <v>38</v>
       </c>
       <c r="E19" s="6">
-        <v>433248</v>
+        <v>433281</v>
       </c>
     </row>
     <row r="20" spans="2:5">
@@ -2138,13 +2138,13 @@
         <v>159</v>
       </c>
       <c r="C20" s="6">
-        <v>960438</v>
+        <v>958686</v>
       </c>
       <c r="D20" t="s">
         <v>39</v>
       </c>
       <c r="E20" s="6">
-        <v>960438</v>
+        <v>958630</v>
       </c>
     </row>
     <row r="21" spans="2:5">
@@ -2152,13 +2152,13 @@
         <v>160</v>
       </c>
       <c r="C21" s="6">
-        <v>96454</v>
+        <v>96557</v>
       </c>
       <c r="D21" t="s">
         <v>40</v>
       </c>
       <c r="E21" s="6">
-        <v>96454</v>
+        <v>96557</v>
       </c>
     </row>
     <row r="22" spans="2:5">
@@ -2166,13 +2166,13 @@
         <v>161</v>
       </c>
       <c r="C22" s="6">
-        <v>2635325</v>
+        <v>2634900</v>
       </c>
       <c r="D22" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="6">
-        <v>2635325</v>
+        <v>2634900</v>
       </c>
     </row>
     <row r="23" spans="2:5">
@@ -2180,13 +2180,13 @@
         <v>162</v>
       </c>
       <c r="C23" s="6">
-        <v>232427</v>
+        <v>232552</v>
       </c>
       <c r="D23" t="s">
         <v>42</v>
       </c>
       <c r="E23" s="6">
-        <v>232427</v>
+        <v>232552</v>
       </c>
     </row>
     <row r="24" spans="2:5">
@@ -2194,13 +2194,13 @@
         <v>163</v>
       </c>
       <c r="C24" s="6">
-        <v>36820</v>
+        <v>36826</v>
       </c>
       <c r="D24" t="s">
         <v>43</v>
       </c>
       <c r="E24" s="6">
-        <v>36820</v>
+        <v>36826</v>
       </c>
     </row>
     <row r="25" spans="2:5">
@@ -2208,13 +2208,13 @@
         <v>164</v>
       </c>
       <c r="C25" s="6">
-        <v>111197</v>
+        <v>111204</v>
       </c>
       <c r="D25" t="s">
         <v>44</v>
       </c>
       <c r="E25" s="6">
-        <v>111197</v>
+        <v>111204</v>
       </c>
     </row>
     <row r="26" spans="2:5">
@@ -2222,13 +2222,13 @@
         <v>165</v>
       </c>
       <c r="C26" s="6">
-        <v>191805</v>
+        <v>192545</v>
       </c>
       <c r="D26" t="s">
         <v>45</v>
       </c>
       <c r="E26" s="6">
-        <v>191805</v>
+        <v>192545</v>
       </c>
     </row>
     <row r="27" spans="2:5">
@@ -2236,13 +2236,13 @@
         <v>166</v>
       </c>
       <c r="C27" s="6">
-        <v>143286</v>
+        <v>142114</v>
       </c>
       <c r="D27" t="s">
         <v>46</v>
       </c>
       <c r="E27" s="6">
-        <v>143286</v>
+        <v>142114</v>
       </c>
     </row>
     <row r="28" spans="2:5">
@@ -2250,13 +2250,13 @@
         <v>167</v>
       </c>
       <c r="C28" s="6">
-        <v>76383</v>
+        <v>76519</v>
       </c>
       <c r="D28" t="s">
         <v>47</v>
       </c>
       <c r="E28" s="6">
-        <v>76383</v>
+        <v>76519</v>
       </c>
     </row>
     <row r="29" spans="2:5">
@@ -2264,13 +2264,13 @@
         <v>168</v>
       </c>
       <c r="C29" s="6">
-        <v>239281</v>
+        <v>239123</v>
       </c>
       <c r="D29" t="s">
         <v>48</v>
       </c>
       <c r="E29" s="6">
-        <v>239281</v>
+        <v>239123</v>
       </c>
     </row>
     <row r="30" spans="2:5">
@@ -2278,13 +2278,13 @@
         <v>169</v>
       </c>
       <c r="C30" s="6">
-        <v>501557</v>
+        <v>510267</v>
       </c>
       <c r="D30" t="s">
         <v>49</v>
       </c>
       <c r="E30" s="6">
-        <v>501544</v>
+        <v>510267</v>
       </c>
     </row>
     <row r="31" spans="2:5">
@@ -2306,13 +2306,13 @@
         <v>171</v>
       </c>
       <c r="C32" s="6">
-        <v>1712437</v>
+        <v>1712403</v>
       </c>
       <c r="D32" t="s">
         <v>51</v>
       </c>
       <c r="E32" s="6">
-        <v>1712437</v>
+        <v>1712403</v>
       </c>
     </row>
     <row r="33" spans="2:5">
@@ -2348,13 +2348,13 @@
         <v>174</v>
       </c>
       <c r="C35" s="6">
-        <v>444498</v>
+        <v>441503</v>
       </c>
       <c r="D35" t="s">
         <v>54</v>
       </c>
       <c r="E35" s="6">
-        <v>444498</v>
+        <v>441503</v>
       </c>
     </row>
     <row r="36" spans="2:5">
@@ -2362,13 +2362,13 @@
         <v>175</v>
       </c>
       <c r="C36" s="6">
-        <v>188359</v>
+        <v>188377</v>
       </c>
       <c r="D36" t="s">
         <v>55</v>
       </c>
       <c r="E36" s="6">
-        <v>188359</v>
+        <v>188377</v>
       </c>
     </row>
     <row r="37" spans="2:5">
@@ -2376,13 +2376,13 @@
         <v>176</v>
       </c>
       <c r="C37" s="6">
-        <v>252480</v>
+        <v>252496</v>
       </c>
       <c r="D37" t="s">
         <v>56</v>
       </c>
       <c r="E37" s="6">
-        <v>252480</v>
+        <v>252495</v>
       </c>
     </row>
     <row r="38" spans="2:5">
@@ -2390,13 +2390,13 @@
         <v>177</v>
       </c>
       <c r="C38" s="6">
-        <v>879861</v>
+        <v>859214</v>
       </c>
       <c r="D38" t="s">
         <v>57</v>
       </c>
       <c r="E38" s="6">
-        <v>879861</v>
+        <v>859214</v>
       </c>
     </row>
     <row r="39" spans="2:5">
@@ -2418,13 +2418,13 @@
         <v>179</v>
       </c>
       <c r="C40" s="6">
-        <v>270264</v>
+        <v>270278</v>
       </c>
       <c r="D40" t="s">
         <v>59</v>
       </c>
       <c r="E40" s="6">
-        <v>270264</v>
+        <v>270278</v>
       </c>
     </row>
     <row r="41" spans="2:5">
@@ -2460,13 +2460,13 @@
         <v>182</v>
       </c>
       <c r="C43" s="6">
-        <v>16429</v>
+        <v>16430</v>
       </c>
       <c r="D43" t="s">
         <v>62</v>
       </c>
       <c r="E43" s="6">
-        <v>16429</v>
+        <v>16430</v>
       </c>
     </row>
     <row r="44" spans="2:5">
@@ -2488,13 +2488,13 @@
         <v>184</v>
       </c>
       <c r="C45" s="6">
-        <v>23163</v>
+        <v>23156</v>
       </c>
       <c r="D45" t="s">
         <v>64</v>
       </c>
       <c r="E45" s="6">
-        <v>23163</v>
+        <v>23156</v>
       </c>
     </row>
     <row r="46" spans="2:5">
@@ -2544,13 +2544,13 @@
         <v>188</v>
       </c>
       <c r="C49" s="6">
-        <v>197823</v>
+        <v>197743</v>
       </c>
       <c r="D49" t="s">
         <v>68</v>
       </c>
       <c r="E49" s="6">
-        <v>197823</v>
+        <v>197743</v>
       </c>
     </row>
     <row r="50" spans="2:5">
@@ -2558,13 +2558,13 @@
         <v>189</v>
       </c>
       <c r="C50" s="6">
-        <v>72588</v>
+        <v>72044</v>
       </c>
       <c r="D50" t="s">
         <v>69</v>
       </c>
       <c r="E50" s="6">
-        <v>72588</v>
+        <v>72044</v>
       </c>
     </row>
     <row r="51" spans="2:5">
@@ -2572,13 +2572,13 @@
         <v>190</v>
       </c>
       <c r="C51" s="6">
-        <v>49510</v>
+        <v>49374</v>
       </c>
       <c r="D51" t="s">
         <v>70</v>
       </c>
       <c r="E51" s="6">
-        <v>49510</v>
+        <v>49374</v>
       </c>
     </row>
     <row r="52" spans="2:5">
@@ -2628,13 +2628,13 @@
         <v>194</v>
       </c>
       <c r="C55" s="6">
-        <v>13043</v>
+        <v>13042</v>
       </c>
       <c r="D55" t="s">
         <v>74</v>
       </c>
       <c r="E55" s="6">
-        <v>13043</v>
+        <v>13042</v>
       </c>
     </row>
     <row r="56" spans="2:5">
@@ -2670,13 +2670,13 @@
         <v>197</v>
       </c>
       <c r="C58" s="6">
-        <v>234301</v>
+        <v>234331</v>
       </c>
       <c r="D58" t="s">
         <v>77</v>
       </c>
       <c r="E58" s="6">
-        <v>234301</v>
+        <v>234331</v>
       </c>
     </row>
     <row r="59" spans="2:5">
@@ -2684,13 +2684,13 @@
         <v>198</v>
       </c>
       <c r="C59" s="6">
-        <v>36961</v>
+        <v>36935</v>
       </c>
       <c r="D59" t="s">
         <v>78</v>
       </c>
       <c r="E59" s="6">
-        <v>36961</v>
+        <v>36935</v>
       </c>
     </row>
     <row r="60" spans="2:5">
@@ -2698,13 +2698,13 @@
         <v>199</v>
       </c>
       <c r="C60" s="6">
-        <v>85685</v>
+        <v>85599</v>
       </c>
       <c r="D60" t="s">
         <v>79</v>
       </c>
       <c r="E60" s="6">
-        <v>85759</v>
+        <v>85552</v>
       </c>
     </row>
     <row r="61" spans="2:5">
@@ -2712,13 +2712,13 @@
         <v>200</v>
       </c>
       <c r="C61" s="6">
-        <v>9687</v>
+        <v>9705</v>
       </c>
       <c r="D61" t="s">
         <v>80</v>
       </c>
       <c r="E61" s="6">
-        <v>9687</v>
+        <v>9705</v>
       </c>
     </row>
     <row r="62" spans="2:5">
@@ -2726,13 +2726,13 @@
         <v>201</v>
       </c>
       <c r="C62" s="6">
-        <v>186570</v>
+        <v>186523</v>
       </c>
       <c r="D62" t="s">
         <v>81</v>
       </c>
       <c r="E62" s="6">
-        <v>186570</v>
+        <v>186523</v>
       </c>
     </row>
     <row r="63" spans="2:5">
@@ -2740,13 +2740,13 @@
         <v>202</v>
       </c>
       <c r="C63" s="6">
-        <v>17988</v>
+        <v>17989</v>
       </c>
       <c r="D63" t="s">
         <v>82</v>
       </c>
       <c r="E63" s="6">
-        <v>17988</v>
+        <v>17989</v>
       </c>
     </row>
     <row r="64" spans="2:5">
@@ -2768,13 +2768,13 @@
         <v>204</v>
       </c>
       <c r="C65" s="6">
-        <v>23968</v>
+        <v>24248</v>
       </c>
       <c r="D65" t="s">
         <v>84</v>
       </c>
       <c r="E65" s="6">
-        <v>23968</v>
+        <v>24248</v>
       </c>
     </row>
     <row r="66" spans="2:5">
@@ -2782,13 +2782,13 @@
         <v>205</v>
       </c>
       <c r="C66" s="6">
-        <v>17172</v>
+        <v>17371</v>
       </c>
       <c r="D66" t="s">
         <v>85</v>
       </c>
       <c r="E66" s="6">
-        <v>17172</v>
+        <v>17371</v>
       </c>
     </row>
     <row r="67" spans="2:5">
@@ -2796,13 +2796,13 @@
         <v>206</v>
       </c>
       <c r="C67" s="6">
-        <v>21073</v>
+        <v>20877</v>
       </c>
       <c r="D67" t="s">
         <v>86</v>
       </c>
       <c r="E67" s="6">
-        <v>21073</v>
+        <v>20877</v>
       </c>
     </row>
     <row r="68" spans="2:5">
@@ -2810,13 +2810,13 @@
         <v>207</v>
       </c>
       <c r="C68" s="6">
-        <v>13606</v>
+        <v>13639</v>
       </c>
       <c r="D68" t="s">
         <v>87</v>
       </c>
       <c r="E68" s="6">
-        <v>13606</v>
+        <v>13639</v>
       </c>
     </row>
     <row r="69" spans="2:5">
@@ -2824,13 +2824,13 @@
         <v>208</v>
       </c>
       <c r="C69" s="6">
-        <v>34941</v>
+        <v>34863</v>
       </c>
       <c r="D69" t="s">
         <v>88</v>
       </c>
       <c r="E69" s="6">
-        <v>34941</v>
+        <v>34863</v>
       </c>
     </row>
     <row r="70" spans="2:5">
@@ -2838,13 +2838,13 @@
         <v>209</v>
       </c>
       <c r="C70" s="6">
-        <v>96925</v>
+        <v>97299</v>
       </c>
       <c r="D70" t="s">
         <v>89</v>
       </c>
       <c r="E70" s="6">
-        <v>96925</v>
+        <v>97299</v>
       </c>
     </row>
     <row r="71" spans="2:5">
@@ -2852,13 +2852,13 @@
         <v>210</v>
       </c>
       <c r="C71" s="6">
-        <v>25618</v>
+        <v>25675</v>
       </c>
       <c r="D71" t="s">
         <v>90</v>
       </c>
       <c r="E71" s="6">
-        <v>25618</v>
+        <v>25675</v>
       </c>
     </row>
     <row r="72" spans="2:5">
@@ -2866,13 +2866,13 @@
         <v>211</v>
       </c>
       <c r="C72" s="6">
-        <v>151047</v>
+        <v>151112</v>
       </c>
       <c r="D72" t="s">
         <v>91</v>
       </c>
       <c r="E72" s="6">
-        <v>151047</v>
+        <v>151112</v>
       </c>
     </row>
     <row r="73" spans="2:5">
@@ -2894,13 +2894,13 @@
         <v>213</v>
       </c>
       <c r="C74" s="6">
-        <v>29837</v>
+        <v>30087</v>
       </c>
       <c r="D74" t="s">
         <v>93</v>
       </c>
       <c r="E74" s="6">
-        <v>29837</v>
+        <v>30087</v>
       </c>
     </row>
     <row r="75" spans="2:5">
@@ -2908,13 +2908,13 @@
         <v>214</v>
       </c>
       <c r="C75" s="6">
-        <v>41272</v>
+        <v>41313</v>
       </c>
       <c r="D75" t="s">
         <v>94</v>
       </c>
       <c r="E75" s="6">
-        <v>41272</v>
+        <v>41313</v>
       </c>
     </row>
     <row r="76" spans="2:5">
@@ -2922,13 +2922,13 @@
         <v>215</v>
       </c>
       <c r="C76" s="6">
-        <v>27246</v>
+        <v>27222</v>
       </c>
       <c r="D76" t="s">
         <v>95</v>
       </c>
       <c r="E76" s="6">
-        <v>27246</v>
+        <v>27222</v>
       </c>
     </row>
     <row r="77" spans="2:5">
@@ -2936,13 +2936,13 @@
         <v>216</v>
       </c>
       <c r="C77" s="6">
-        <v>46476</v>
+        <v>45456</v>
       </c>
       <c r="D77" t="s">
         <v>96</v>
       </c>
       <c r="E77" s="6">
-        <v>46476</v>
+        <v>45456</v>
       </c>
     </row>
     <row r="78" spans="2:5">
@@ -2950,13 +2950,13 @@
         <v>217</v>
       </c>
       <c r="C78" s="6">
-        <v>115137</v>
+        <v>114794</v>
       </c>
       <c r="D78" t="s">
         <v>97</v>
       </c>
       <c r="E78" s="6">
-        <v>115137</v>
+        <v>114794</v>
       </c>
     </row>
     <row r="79" spans="2:5">
@@ -2964,13 +2964,13 @@
         <v>218</v>
       </c>
       <c r="C79" s="6">
-        <v>17189</v>
+        <v>17198</v>
       </c>
       <c r="D79" t="s">
         <v>98</v>
       </c>
       <c r="E79" s="6">
-        <v>17189</v>
+        <v>17198</v>
       </c>
     </row>
     <row r="80" spans="2:5">
@@ -2978,13 +2978,13 @@
         <v>219</v>
       </c>
       <c r="C80" s="6">
-        <v>22779</v>
+        <v>22795</v>
       </c>
       <c r="D80" t="s">
         <v>99</v>
       </c>
       <c r="E80" s="6">
-        <v>22779</v>
+        <v>22795</v>
       </c>
     </row>
     <row r="81" spans="2:5">
@@ -2992,13 +2992,13 @@
         <v>220</v>
       </c>
       <c r="C81" s="6">
-        <v>26807</v>
+        <v>26806</v>
       </c>
       <c r="D81" t="s">
         <v>100</v>
       </c>
       <c r="E81" s="6">
-        <v>26807</v>
+        <v>26806</v>
       </c>
     </row>
     <row r="82" spans="2:5">
@@ -3048,13 +3048,13 @@
         <v>224</v>
       </c>
       <c r="C85" s="6">
-        <v>77894</v>
+        <v>77903</v>
       </c>
       <c r="D85" t="s">
         <v>104</v>
       </c>
       <c r="E85" s="6">
-        <v>77894</v>
+        <v>77903</v>
       </c>
     </row>
     <row r="86" spans="2:5">
@@ -3104,13 +3104,13 @@
         <v>228</v>
       </c>
       <c r="C89" s="6">
-        <v>839433</v>
+        <v>839589</v>
       </c>
       <c r="D89" t="s">
         <v>108</v>
       </c>
       <c r="E89" s="6">
-        <v>839433</v>
+        <v>839589</v>
       </c>
     </row>
     <row r="90" spans="2:5">
@@ -3118,13 +3118,13 @@
         <v>229</v>
       </c>
       <c r="C90" s="6">
-        <v>239527</v>
+        <v>238633</v>
       </c>
       <c r="D90" t="s">
         <v>109</v>
       </c>
       <c r="E90" s="6">
-        <v>239527</v>
+        <v>238633</v>
       </c>
     </row>
     <row r="91" spans="2:5">
@@ -3132,13 +3132,13 @@
         <v>230</v>
       </c>
       <c r="C91" s="6">
-        <v>156341</v>
+        <v>156224</v>
       </c>
       <c r="D91" t="s">
         <v>110</v>
       </c>
       <c r="E91" s="6">
-        <v>156341</v>
+        <v>156224</v>
       </c>
     </row>
     <row r="92" spans="2:5">
@@ -3188,13 +3188,13 @@
         <v>234</v>
       </c>
       <c r="C95" s="6">
-        <v>47710</v>
+        <v>47754</v>
       </c>
       <c r="D95" t="s">
         <v>114</v>
       </c>
       <c r="E95" s="6">
-        <v>47710</v>
+        <v>47754</v>
       </c>
     </row>
     <row r="96" spans="2:5">
@@ -3202,13 +3202,13 @@
         <v>235</v>
       </c>
       <c r="C96" s="6">
-        <v>54091</v>
+        <v>54174</v>
       </c>
       <c r="D96" t="s">
         <v>115</v>
       </c>
       <c r="E96" s="6">
-        <v>54091</v>
+        <v>54174</v>
       </c>
     </row>
     <row r="97" spans="2:5">
@@ -3230,13 +3230,13 @@
         <v>237</v>
       </c>
       <c r="C98" s="6">
-        <v>985889</v>
+        <v>987077</v>
       </c>
       <c r="D98" t="s">
         <v>117</v>
       </c>
       <c r="E98" s="6">
-        <v>985889</v>
+        <v>987077</v>
       </c>
     </row>
     <row r="99" spans="2:5">
@@ -3244,13 +3244,13 @@
         <v>238</v>
       </c>
       <c r="C99" s="6">
-        <v>116663</v>
+        <v>116675</v>
       </c>
       <c r="D99" t="s">
         <v>118</v>
       </c>
       <c r="E99" s="6">
-        <v>116663</v>
+        <v>116675</v>
       </c>
     </row>
     <row r="100" spans="2:5">
@@ -3258,13 +3258,13 @@
         <v>239</v>
       </c>
       <c r="C100" s="6">
-        <v>282910</v>
+        <v>281042</v>
       </c>
       <c r="D100" t="s">
         <v>119</v>
       </c>
       <c r="E100" s="6">
-        <v>282910</v>
+        <v>281042</v>
       </c>
     </row>
     <row r="101" spans="2:5">
@@ -3272,13 +3272,13 @@
         <v>240</v>
       </c>
       <c r="C101" s="6">
-        <v>29188</v>
+        <v>29220</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
       </c>
       <c r="E101" s="6">
-        <v>29188</v>
+        <v>29220</v>
       </c>
     </row>
     <row r="102" spans="2:5">
@@ -3286,13 +3286,13 @@
         <v>241</v>
       </c>
       <c r="C102" s="6">
-        <v>703882</v>
+        <v>703854</v>
       </c>
       <c r="D102" t="s">
         <v>121</v>
       </c>
       <c r="E102" s="6">
-        <v>703882</v>
+        <v>703854</v>
       </c>
     </row>
     <row r="103" spans="2:5">
@@ -3300,13 +3300,13 @@
         <v>242</v>
       </c>
       <c r="C103" s="6">
-        <v>62548</v>
+        <v>62558</v>
       </c>
       <c r="D103" t="s">
         <v>122</v>
       </c>
       <c r="E103" s="6">
-        <v>62548</v>
+        <v>62558</v>
       </c>
     </row>
     <row r="104" spans="2:5">
@@ -3314,13 +3314,13 @@
         <v>243</v>
       </c>
       <c r="C104" s="6">
-        <v>13695</v>
+        <v>13697</v>
       </c>
       <c r="D104" t="s">
         <v>123</v>
       </c>
       <c r="E104" s="6">
-        <v>13695</v>
+        <v>13697</v>
       </c>
     </row>
     <row r="105" spans="2:5">
@@ -3328,13 +3328,13 @@
         <v>244</v>
       </c>
       <c r="C105" s="6">
-        <v>50460</v>
+        <v>50453</v>
       </c>
       <c r="D105" t="s">
         <v>124</v>
       </c>
       <c r="E105" s="6">
-        <v>50460</v>
+        <v>50453</v>
       </c>
     </row>
     <row r="106" spans="2:5">
@@ -3342,13 +3342,13 @@
         <v>245</v>
       </c>
       <c r="C106" s="6">
-        <v>53305</v>
+        <v>53953</v>
       </c>
       <c r="D106" t="s">
         <v>125</v>
       </c>
       <c r="E106" s="6">
-        <v>53305</v>
+        <v>53953</v>
       </c>
     </row>
     <row r="107" spans="2:5">
@@ -3356,13 +3356,13 @@
         <v>246</v>
       </c>
       <c r="C107" s="6">
-        <v>55517</v>
+        <v>54793</v>
       </c>
       <c r="D107" t="s">
         <v>126</v>
       </c>
       <c r="E107" s="6">
-        <v>55517</v>
+        <v>54793</v>
       </c>
     </row>
     <row r="108" spans="2:5">
@@ -3370,13 +3370,13 @@
         <v>247</v>
       </c>
       <c r="C108" s="6">
-        <v>32153</v>
+        <v>32259</v>
       </c>
       <c r="D108" t="s">
         <v>127</v>
       </c>
       <c r="E108" s="6">
-        <v>32153</v>
+        <v>32259</v>
       </c>
     </row>
     <row r="109" spans="2:5">
@@ -3384,13 +3384,13 @@
         <v>248</v>
       </c>
       <c r="C109" s="6">
-        <v>91129</v>
+        <v>91118</v>
       </c>
       <c r="D109" t="s">
         <v>128</v>
       </c>
       <c r="E109" s="6">
-        <v>91129</v>
+        <v>91118</v>
       </c>
     </row>
     <row r="110" spans="2:5">
@@ -3398,13 +3398,13 @@
         <v>249</v>
       </c>
       <c r="C110" s="6">
-        <v>248569</v>
+        <v>251633</v>
       </c>
       <c r="D110" t="s">
         <v>129</v>
       </c>
       <c r="E110" s="6">
-        <v>248569</v>
+        <v>251633</v>
       </c>
     </row>
     <row r="111" spans="2:5">
@@ -3412,13 +3412,13 @@
         <v>250</v>
       </c>
       <c r="C111" s="6">
-        <v>75915</v>
+        <v>75896</v>
       </c>
       <c r="D111" t="s">
         <v>130</v>
       </c>
       <c r="E111" s="6">
-        <v>75915</v>
+        <v>75896</v>
       </c>
     </row>
     <row r="112" spans="2:5">
@@ -3426,13 +3426,13 @@
         <v>251</v>
       </c>
       <c r="C112" s="6">
-        <v>492934</v>
+        <v>491499</v>
       </c>
       <c r="D112" t="s">
         <v>131</v>
       </c>
       <c r="E112" s="6">
-        <v>492934</v>
+        <v>491499</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3454,13 +3454,13 @@
         <v>253</v>
       </c>
       <c r="C114" s="6">
-        <v>104643</v>
+        <v>104837</v>
       </c>
       <c r="D114" t="s">
         <v>133</v>
       </c>
       <c r="E114" s="6">
-        <v>104643</v>
+        <v>104837</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3468,13 +3468,13 @@
         <v>254</v>
       </c>
       <c r="C115" s="6">
-        <v>135931</v>
+        <v>135459</v>
       </c>
       <c r="D115" t="s">
         <v>134</v>
       </c>
       <c r="E115" s="6">
-        <v>135931</v>
+        <v>135459</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3482,13 +3482,13 @@
         <v>255</v>
       </c>
       <c r="C116" s="6">
-        <v>70282</v>
+        <v>70049</v>
       </c>
       <c r="D116" t="s">
         <v>135</v>
       </c>
       <c r="E116" s="6">
-        <v>70282</v>
+        <v>70049</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3496,13 +3496,13 @@
         <v>256</v>
       </c>
       <c r="C117" s="6">
-        <v>108202</v>
+        <v>107848</v>
       </c>
       <c r="D117" t="s">
         <v>136</v>
       </c>
       <c r="E117" s="6">
-        <v>108202</v>
+        <v>107848</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3510,13 +3510,13 @@
         <v>257</v>
       </c>
       <c r="C118" s="6">
-        <v>315867</v>
+        <v>313237</v>
       </c>
       <c r="D118" t="s">
         <v>137</v>
       </c>
       <c r="E118" s="6">
-        <v>315867</v>
+        <v>313237</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3524,13 +3524,13 @@
         <v>258</v>
       </c>
       <c r="C119" s="6">
-        <v>62955</v>
+        <v>62962</v>
       </c>
       <c r="D119" t="s">
         <v>138</v>
       </c>
       <c r="E119" s="6">
-        <v>62955</v>
+        <v>62962</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3538,13 +3538,13 @@
         <v>259</v>
       </c>
       <c r="C120" s="6">
-        <v>77209</v>
+        <v>77200</v>
       </c>
       <c r="D120" t="s">
         <v>139</v>
       </c>
       <c r="E120" s="6">
-        <v>77209</v>
+        <v>77200</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3581,11 +3581,11 @@
       </c>
       <c r="C123" s="11">
         <f>AVERAGE(C3:C122)</f>
-        <v>254468.74166666667</v>
+        <v>254320.52499999999</v>
       </c>
       <c r="E123" s="11">
         <f>AVERAGE(E3:E122)</f>
-        <v>254470.13333333333</v>
+        <v>254319.57500000001</v>
       </c>
     </row>
     <row r="124" spans="1:5" s="1" customFormat="1">
@@ -3594,11 +3594,11 @@
       </c>
       <c r="C124" s="5">
         <f>MEDIAN(C3:C122)</f>
-        <v>90564.5</v>
+        <v>90559</v>
       </c>
       <c r="E124" s="5">
         <f>MEDIAN(E3:E122)</f>
-        <v>90564.5</v>
+        <v>90559</v>
       </c>
     </row>
     <row r="125" spans="1:5" s="2" customFormat="1">
@@ -3607,11 +3607,11 @@
       </c>
       <c r="C125" s="7">
         <f>SUM(C3:C122)</f>
-        <v>30536249</v>
+        <v>30518463</v>
       </c>
       <c r="E125" s="7">
         <f>SUM(E3:E122)</f>
-        <v>30536416</v>
+        <v>30518349</v>
       </c>
     </row>
     <row r="126" spans="1:5" s="1" customFormat="1">
@@ -3620,11 +3620,11 @@
       </c>
       <c r="C126" s="5">
         <f>AVERAGE(C3:C7,C12:C17,C21,C23:C26,C31,C34,C39:C47,C52:C57,C61,C63:C66,C71,C74,C79:C87,C92:C97,C101,C103:C106,C111,C114,C119:C122)</f>
-        <v>92191.181818181823</v>
+        <v>92234.07575757576</v>
       </c>
       <c r="E126" s="5">
         <f>AVERAGE(E3:E7,E12:E17,E21,E23:E26,E31,E34,E39:E47,E52:E57,E61,E63:E66,E71,E74,E79:E87,E92:E97,E101,E103:E106,E111,E114,E119:E122)</f>
-        <v>92191.181818181823</v>
+        <v>92234.07575757576</v>
       </c>
     </row>
     <row r="127" spans="1:5" s="1" customFormat="1">
@@ -3633,11 +3633,11 @@
       </c>
       <c r="C127" s="5">
         <f>MEDIAN(C3:C7,C12:C17,C21,C23:C26,C31,C34,C39:C47,C52:C57,C61,C63:C66,C71,C74,C79:C87,C92:C97,C101,C103:C106,C111,C114,C119:C122)</f>
-        <v>52979.5</v>
+        <v>53303.5</v>
       </c>
       <c r="E127" s="5">
         <f>MEDIAN(E3:E7,E12:E17,E21,E23:E26,E31,E34,E39:E47,E52:E57,E61,E63:E66,E71,E74,E79:E87,E92:E97,E101,E103:E106,E111,E114,E119:E122)</f>
-        <v>52979.5</v>
+        <v>53303.5</v>
       </c>
     </row>
     <row r="128" spans="1:5" s="2" customFormat="1">
@@ -3646,11 +3646,11 @@
       </c>
       <c r="C128" s="7">
         <f>SUM(C3:C7,C12:C17,C21,C23:C26,C31,C34,C39:C47,C52:C57,C61,C63:C66,C71,C74,C79:C87,C92:C97,C101,C103:C106,C111,C114,C119:C122)</f>
-        <v>6084618</v>
+        <v>6087449</v>
       </c>
       <c r="E128" s="7">
         <f>SUM(E3:E7,E12:E17,E21,E23:E26,E31,E34,E39:E47,E52:E57,E61,E63:E66,E71,E74,E79:E87,E92:E97,E101,E103:E106,E111,E114,E119:E122)</f>
-        <v>6084618</v>
+        <v>6087449</v>
       </c>
     </row>
     <row r="129" spans="1:5" s="1" customFormat="1">
@@ -3659,11 +3659,11 @@
       </c>
       <c r="C129" s="5">
         <f>AVERAGE(C8:C11,C18:C20,C22,C27:C30,C32:C33,C35:C38,C48:C51,C58:C60,C62,C67:C70,C72:C73,C75:C78,C88:C91,C98:C100,C102,C107:C110,C112:C113,C115:C118)</f>
-        <v>452807.98148148146</v>
+        <v>452426.18518518517</v>
       </c>
       <c r="E129" s="5">
         <f>AVERAGE(E8:E11,E18:E20,E22,E27:E30,E32:E33,E35:E38,E48:E51,E58:E60,E62,E67:E70,E72:E73,E75:E78,E88:E91,E98:E100,E102,E107:E110,E112:E113,E115:E118)</f>
-        <v>452811.0740740741</v>
+        <v>452424.0740740741</v>
       </c>
     </row>
     <row r="130" spans="1:5" s="1" customFormat="1">
@@ -3672,11 +3672,11 @@
       </c>
       <c r="C130" s="5">
         <f>MEDIAN(C8:C11,C18:C20,C22,C27:C30,C32:C33,C35:C38,C48:C51,C58:C60,C62,C67:C70,C72:C73,C75:C78,C88:C91,C98:C100,C102,C107:C110,C112:C113,C115:C118)</f>
-        <v>187464.5</v>
+        <v>187450</v>
       </c>
       <c r="E130" s="5">
         <f>MEDIAN(E8:E11,E18:E20,E22,E27:E30,E32:E33,E35:E38,E48:E51,E58:E60,E62,E67:E70,E72:E73,E75:E78,E88:E91,E98:E100,E102,E107:E110,E112:E113,E115:E118)</f>
-        <v>187464.5</v>
+        <v>187450</v>
       </c>
     </row>
     <row r="131" spans="1:5" s="2" customFormat="1">
@@ -3685,11 +3685,11 @@
       </c>
       <c r="C131" s="7">
         <f>SUM(C8:C11,C18:C20,C22,C27:C30,C32:C33,C35:C38,C48:C51,C58:C60,C62,C67:C70,C72:C73,C75:C78,C88:C91,C98:C100,C102,C107:C110,C112:C113,C115:C118)</f>
-        <v>24451631</v>
+        <v>24431014</v>
       </c>
       <c r="E131" s="7">
         <f>SUM(E8:E11,E18:E20,E22,E27:E30,E32:E33,E35:E38,E48:E51,E58:E60,E62,E67:E70,E72:E73,E75:E78,E88:E91,E98:E100,E102,E107:E110,E112:E113,E115:E118)</f>
-        <v>24451798</v>
+        <v>24430900</v>
       </c>
     </row>
     <row r="132" spans="1:5" s="1" customFormat="1">
@@ -3698,11 +3698,11 @@
       </c>
       <c r="C132" s="5">
         <f>AVERAGE(C43:C82)</f>
-        <v>48201.5</v>
+        <v>48171.125</v>
       </c>
       <c r="E132" s="5">
         <f>AVERAGE(E43:E82)</f>
-        <v>48203.35</v>
+        <v>48169.95</v>
       </c>
     </row>
     <row r="133" spans="1:5" s="1" customFormat="1">
@@ -3711,11 +3711,11 @@
       </c>
       <c r="C133" s="5">
         <f>MEDIAN(C43:C82)</f>
-        <v>26034</v>
+        <v>26062.5</v>
       </c>
       <c r="E133" s="5">
         <f>MEDIAN(E43:E82)</f>
-        <v>26034</v>
+        <v>26062.5</v>
       </c>
     </row>
     <row r="134" spans="1:5" s="2" customFormat="1">
@@ -3724,11 +3724,11 @@
       </c>
       <c r="C134" s="7">
         <f>SUM(C43:C82)</f>
-        <v>1928060</v>
+        <v>1926845</v>
       </c>
       <c r="E134" s="7">
         <f>SUM(E43:E82)</f>
-        <v>1928134</v>
+        <v>1926798</v>
       </c>
     </row>
     <row r="135" spans="1:5" s="1" customFormat="1">
@@ -3737,11 +3737,11 @@
       </c>
       <c r="C135" s="5">
         <f>AVERAGE(C83:C122)</f>
-        <v>162654.57500000001</v>
+        <v>162573.42499999999</v>
       </c>
       <c r="E135" s="5">
         <f>AVERAGE(E83:E122)</f>
-        <v>162654.57500000001</v>
+        <v>162573.42499999999</v>
       </c>
     </row>
     <row r="136" spans="1:5" s="1" customFormat="1">
@@ -3750,11 +3750,11 @@
       </c>
       <c r="C136" s="5">
         <f>MEDIAN(C83:C122)</f>
-        <v>78585</v>
+        <v>78589.5</v>
       </c>
       <c r="E136" s="5">
         <f>MEDIAN(E83:E122)</f>
-        <v>78585</v>
+        <v>78589.5</v>
       </c>
     </row>
     <row r="137" spans="1:5" s="2" customFormat="1">
@@ -3763,11 +3763,11 @@
       </c>
       <c r="C137" s="7">
         <f>SUM(C83:C122)</f>
-        <v>6506183</v>
+        <v>6502937</v>
       </c>
       <c r="E137" s="7">
         <f>SUM(E83:E122)</f>
-        <v>6506183</v>
+        <v>6502937</v>
       </c>
     </row>
     <row r="138" spans="1:5" s="1" customFormat="1">
@@ -3776,11 +3776,11 @@
       </c>
       <c r="C138" s="5">
         <f>AVERAGE(C3:C42)</f>
-        <v>552550.15</v>
+        <v>552217.02500000002</v>
       </c>
       <c r="E138" s="5">
         <f>AVERAGE(E3:E42)</f>
-        <v>552552.47499999998</v>
+        <v>552215.35</v>
       </c>
     </row>
     <row r="139" spans="1:5" s="1" customFormat="1">
@@ -3789,11 +3789,11 @@
       </c>
       <c r="C139" s="5">
         <f>MEDIAN(C3:C42)</f>
-        <v>242579.5</v>
+        <v>242500.5</v>
       </c>
       <c r="E139" s="5">
         <f>MEDIAN(E3:E42)</f>
-        <v>242579.5</v>
+        <v>242500.5</v>
       </c>
     </row>
     <row r="140" spans="1:5" s="2" customFormat="1">
@@ -3802,11 +3802,11 @@
       </c>
       <c r="C140" s="7">
         <f>SUM(C3:C42)</f>
-        <v>22102006</v>
+        <v>22088681</v>
       </c>
       <c r="E140" s="7">
         <f>SUM(E3:E42)</f>
-        <v>22102099</v>
+        <v>22088614</v>
       </c>
     </row>
   </sheetData>
